--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/58/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/58/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6256256256256256</v>
+        <v>0.1441144114411441</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>870.8708708708709</v>
+        <v>1562.766276627663</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00890890890890891</v>
+        <v>0.05890589058905891</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1881881881881882</v>
+        <v>0.9982998299829984</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.5605605605606</v>
+        <v>440.5140514051405</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.01901901901902</v>
+        <v>142.8442844284428</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.1371371371372</v>
+        <v>510.041404140414</v>
       </c>
     </row>
   </sheetData>
